--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860462.99595621</v>
+        <v>3853445.9810645</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767061</v>
+        <v>7728169.883767059</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>353.084589103793</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>111.7848761944322</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>152.8263339283491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>140.5010014379145</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>10.70305333391218</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.7404825732053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>234.9019726896086</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>196.0616210986998</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0282484415396</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>195.5688286778361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>217.9981815644961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>143.2877162712175</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.888457790801037</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.8952567231527</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>210.9685212521347</v>
       </c>
       <c r="V31" t="n">
-        <v>123.0673048469618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>78.19635708727853</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>58.46192906493847</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139964</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>107.0005394720275</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385049</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750026</v>
       </c>
       <c r="U43" t="n">
-        <v>36.44570045297875</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.76523371349977</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056521</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2000.260242234759</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.2403795762991</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.979551616233</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8402196404209</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.1920961943572</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>332.1920961943572</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>489.3282683246672</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433115</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>926.7810320207402</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>637.3638619837797</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="X13" t="n">
-        <v>637.3638619837797</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.5712828402495</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5311,10 +5311,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>764.3004859014865</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>614.1838464891507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>466.2707529067576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>319.3808054088472</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293934</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>933.2366688293934</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5600,19 +5600,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3925.399532794549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>4374.181662836097</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>4146.19211193808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>3925.399532794549</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V22" t="n">
-        <v>1278.716087159422</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W22" t="n">
-        <v>989.2989171224613</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X22" t="n">
-        <v>761.3093662244439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>241.9521584009096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570736</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>592.5368061590563</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.1615145228562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>399.1615145228562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>249.0448751105205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>249.0448751105205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>102.1549276126102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1549276126102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1549276126102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033469</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>619.9540936663864</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>619.9540936663864</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.1615145228562</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.921157035281</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V31" t="n">
-        <v>1063.610748098956</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.610748098956</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X31" t="n">
-        <v>835.6211972009382</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.6211972009382</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.6213191924219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333287</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273998</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904392</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X34" t="n">
-        <v>326.6213191924219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.6213191924219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>462.7283310300495</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365137</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.727015975171</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.598377188729</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4146.913888982842</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4146.913888982842</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4146.913888982842</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1390.834917555855</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1167.049502345361</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>877.9208635589189</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>623.236375353032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>623.236375353032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,10 +7423,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>656.1762782006413</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C43" t="n">
-        <v>656.1762782006413</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U43" t="n">
-        <v>1127.241913067842</v>
+        <v>869.3083006011511</v>
       </c>
       <c r="V43" t="n">
-        <v>1127.241913067842</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W43" t="n">
-        <v>837.824743030881</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X43" t="n">
-        <v>837.824743030881</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y43" t="n">
-        <v>837.824743030881</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514088</v>
@@ -7657,43 +7657,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.5883316929525</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C46" t="n">
-        <v>302.6521487650456</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.5883316929525</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>85.30006332127817</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.88569463024</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>285.1031356539331</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711627</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298099</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>176.7176547498445</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>414.500217918083</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>306.1147370139951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445214</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>17.23567063421939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>90.46137723789121</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>95.46532002183798</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>90.95416965875486</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.13946175933188</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>5.327756746994822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5307876734709</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542464</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>75.26883114644266</v>
       </c>
       <c r="V31" t="n">
-        <v>129.0703384768662</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>89.05046401134931</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>163.0856319934508</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>90.92027051157575</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338673</v>
       </c>
       <c r="U43" t="n">
-        <v>249.7916519455986</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>94.14859465403636</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>75.26883114644269</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980829</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244621</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.760514762</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>6.787390911890778e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.613901418461812e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26438,25 +26438,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143893</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471457</v>
+        <v>-70138.2784047141</v>
       </c>
       <c r="C6" t="n">
+        <v>519829.60080983</v>
+      </c>
+      <c r="D6" t="n">
         <v>519829.6008098304</v>
       </c>
-      <c r="D6" t="n">
-        <v>519829.6008098302</v>
-      </c>
       <c r="E6" t="n">
-        <v>91210.72846770921</v>
+        <v>90236.13720798814</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.1736848843</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446062</v>
+        <v>615396.1736848842</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446053</v>
+        <v>615396.1736848836</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446054</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.545752013</v>
+        <v>438972.9544922911</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="L6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107688</v>
+        <v>480595.1584510469</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446062</v>
+        <v>615396.1736848843</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.7649446055</v>
+        <v>615396.1736848839</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.7649446059</v>
+        <v>615396.1736848837</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26825,13 +26825,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,10 +26946,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.076737677307727e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,28 +26977,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545559</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>53.79145663791849</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>257.9462244840369</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.1044648491239</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>216.9047667501199</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8.114471580297817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>275.8199450026788</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0793351214751</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>172.4974560828483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-2.699042524874638e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.076737677307725e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.076737677307727e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>367.6637655623863</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,7 +35983,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>395.9791095617647</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>492.1965505854578</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303311</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>327.2930933377838</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,19 +37472,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>724.9245949685494</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
